--- a/Data/Config/excel/log/log.xlsx
+++ b/Data/Config/excel/log/log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="日志配置" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>ELoggerType_Invalid = 0,</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Log/Stdout.txt</t>
-  </si>
-  <si>
-    <t>4;5</t>
   </si>
   <si>
     <t>all_log</t>
@@ -160,13 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,345 +166,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -521,251 +188,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,57 +199,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1113,16 +491,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1135,17 +513,17 @@
     <col min="8" max="8" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="1:10">
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="1:10">
       <c r="D4" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="1:10">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="1:10">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="1:10">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:10">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="1:10">
       <c r="D9" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1275,17 +653,20 @@
       <c r="A13">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1024000</v>
@@ -1304,20 +685,17 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>1024000</v>
@@ -1336,20 +714,20 @@
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
+      <c r="B15">
+        <v>-1</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
       </c>
       <c r="G15">
         <v>1024000</v>
@@ -1372,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1024000</v>
@@ -1401,13 +779,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1024000</v>
@@ -1426,20 +804,17 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1024000</v>
@@ -1462,13 +837,13 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>1024000</v>
@@ -1484,42 +859,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>